--- a/src/main/resources/кроссовый_журнал_Технопарк.xlsx
+++ b/src/main/resources/кроссовый_журнал_Технопарк.xlsx
@@ -6965,7 +6965,7 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="4">
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="4">
   <userInfo guid="{DC2CA22D-6856-4859-B3C5-9B4526DF0EC7}" name="Орлов Сергей Викторович" id="-1530778622" dateTime="2017-08-14T12:00:02"/>
   <userInfo guid="{71F61331-5CA8-45FD-9F8F-94D86063EEFB}" name="Астапчук Андрей Владимирович" id="-1003875598" dateTime="2017-08-15T10:00:06"/>
   <userInfo guid="{424A952F-FFEA-46CE-81DE-9ACB699B109B}" name="Орлов Сергей Викторович" id="-1530725092" dateTime="2017-09-05T09:36:49"/>
